--- a/database/industries/khodro/khodro/product/quarterly_seprated.xlsx
+++ b/database/industries/khodro/khodro/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khodro\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18272BAA-62BE-4753-9497-D65225D47FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14AEC0A-5030-4B25-B644-0A791232457A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -61,10 +76,10 @@
     <t>دستگاه</t>
   </si>
   <si>
-    <t>-</t>
+    <t>لوگان(L90)</t>
   </si>
   <si>
-    <t>لوگان(L90)</t>
+    <t>-</t>
   </si>
   <si>
     <t>گروه سمند</t>
@@ -696,16 +711,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I206"/>
+  <dimension ref="B1:N206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -714,8 +729,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -726,8 +746,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -738,8 +763,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -748,8 +778,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,8 +795,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +812,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -782,8 +827,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -804,8 +854,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -814,10 +879,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -826,92 +896,142 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>1041</v>
+      </c>
+      <c r="F11" s="11">
+        <v>-1531</v>
+      </c>
+      <c r="G11" s="11">
+        <v>-1999</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1286</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2996</v>
+      </c>
+      <c r="J11" s="11">
         <v>5634</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
+        <v>7406</v>
+      </c>
+      <c r="L11" s="11">
         <v>5251</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>7744</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>14823</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="F12" s="13">
+        <v>167</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>12150</v>
+      </c>
+      <c r="F13" s="11">
+        <v>19786</v>
+      </c>
+      <c r="G13" s="11">
+        <v>14567</v>
+      </c>
+      <c r="H13" s="11">
+        <v>8742</v>
+      </c>
+      <c r="I13" s="11">
+        <v>15564</v>
+      </c>
+      <c r="J13" s="11">
         <v>13681</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11">
+        <v>12078</v>
+      </c>
+      <c r="L13" s="11">
         <v>13521</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>22712</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>16070</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
         <v>0</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
+      <c r="F14" s="13">
+        <v>0</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
@@ -922,272 +1042,452 @@
       <c r="I14" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>124</v>
+      </c>
+      <c r="F15" s="11">
+        <v>6958</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3810</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1315</v>
+      </c>
+      <c r="I15" s="11">
+        <v>8850</v>
+      </c>
+      <c r="J15" s="11">
         <v>9458</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11">
+        <v>8756</v>
+      </c>
+      <c r="L15" s="11">
         <v>14688</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>6109</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N15" s="11">
         <v>8539</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
+        <v>11713</v>
+      </c>
+      <c r="F16" s="13">
+        <v>13302</v>
+      </c>
+      <c r="G16" s="13">
+        <v>20896</v>
+      </c>
+      <c r="H16" s="13">
+        <v>9250</v>
+      </c>
+      <c r="I16" s="13">
+        <v>11272</v>
+      </c>
+      <c r="J16" s="13">
         <v>9548</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13">
+      <c r="K16" s="13">
+        <v>25683</v>
+      </c>
+      <c r="L16" s="13">
         <v>15588</v>
       </c>
-      <c r="H16" s="13">
+      <c r="M16" s="13">
         <v>21382</v>
       </c>
-      <c r="I16" s="13">
+      <c r="N16" s="13">
         <v>20651</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
+      <c r="E17" s="11">
+        <v>0</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>13</v>
+      <c r="G17" s="11">
+        <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
+        <v>85136</v>
+      </c>
+      <c r="F18" s="13">
+        <v>95810</v>
+      </c>
+      <c r="G18" s="13">
+        <v>95715</v>
+      </c>
+      <c r="H18" s="13">
+        <v>68926</v>
+      </c>
+      <c r="I18" s="13">
+        <v>63362</v>
+      </c>
+      <c r="J18" s="13">
         <v>78903</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13">
+      <c r="K18" s="13">
+        <v>88850</v>
+      </c>
+      <c r="L18" s="13">
         <v>86291</v>
       </c>
-      <c r="H18" s="13">
+      <c r="M18" s="13">
         <v>86623</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>100387</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>13</v>
+      <c r="E19" s="11">
+        <v>1721</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>13</v>
+        <v>1599</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1040</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>13</v>
+      <c r="E20" s="13">
+        <v>121</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="13">
+        <v>332</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
-        <v>13</v>
+      <c r="E22" s="13">
+        <v>96</v>
       </c>
       <c r="F22" s="13">
         <v>0</v>
       </c>
       <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>13</v>
+        <v>-1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
+        <v>112102</v>
+      </c>
+      <c r="F25" s="15">
+        <v>136091</v>
+      </c>
+      <c r="G25" s="15">
+        <v>134360</v>
+      </c>
+      <c r="H25" s="15">
+        <v>89522</v>
+      </c>
+      <c r="I25" s="15">
+        <v>102044</v>
+      </c>
+      <c r="J25" s="15">
         <v>117224</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15">
+      <c r="K25" s="15">
+        <v>142773</v>
+      </c>
+      <c r="L25" s="15">
         <v>135339</v>
       </c>
-      <c r="H25" s="15">
+      <c r="M25" s="15">
         <v>144570</v>
       </c>
-      <c r="I25" s="15">
+      <c r="N25" s="15">
         <v>160470</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1196,320 +1496,520 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>13</v>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>13</v>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30" s="13"/>
-      <c r="E30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>13</v>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>13</v>
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>30</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="13" t="s">
-        <v>13</v>
+      <c r="E32" s="13">
+        <v>0</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
-        <v>13</v>
+      <c r="E33" s="11">
+        <v>0</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="13" t="s">
-        <v>13</v>
+      <c r="E34" s="13">
+        <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>13</v>
+      <c r="E35" s="11">
+        <v>0</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>288</v>
+      </c>
+      <c r="F36" s="13">
+        <v>216</v>
+      </c>
+      <c r="G36" s="13">
+        <v>984</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <v>2209</v>
+      </c>
+      <c r="J36" s="13">
         <v>576</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C37" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="11">
+        <v>97</v>
+      </c>
+      <c r="J37" s="11">
+        <v>51</v>
+      </c>
+      <c r="K37" s="11">
+        <v>194</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <v>10</v>
+      </c>
+      <c r="N37" s="11">
         <v>12</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11">
-        <v>51</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
-        <v>10</v>
-      </c>
-      <c r="I37" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="13">
+        <v>19</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="13">
+        <v>3361</v>
+      </c>
+      <c r="L38" s="13">
         <v>384</v>
       </c>
-      <c r="H38" s="13">
+      <c r="M38" s="13">
         <v>288</v>
       </c>
-      <c r="I38" s="13">
+      <c r="N38" s="13">
         <v>605</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
+        <v>288</v>
+      </c>
+      <c r="F39" s="15">
+        <v>216</v>
+      </c>
+      <c r="G39" s="15">
+        <v>1014</v>
+      </c>
+      <c r="H39" s="15">
+        <v>0</v>
+      </c>
+      <c r="I39" s="15">
+        <v>2306</v>
+      </c>
+      <c r="J39" s="15">
         <v>627</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
+        <v>3555</v>
+      </c>
+      <c r="L39" s="15">
         <v>384</v>
       </c>
-      <c r="H39" s="15">
+      <c r="M39" s="15">
         <v>298</v>
       </c>
-      <c r="I39" s="15">
+      <c r="N39" s="15">
         <v>617</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -1518,54 +2018,89 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -1584,76 +2119,136 @@
       <c r="I43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+      <c r="N43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>13</v>
+      <c r="E44" s="17">
+        <v>0</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I44" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
         <v>0</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="15">
-        <v>0</v>
-      </c>
-      <c r="H45" s="15">
-        <v>0</v>
+      <c r="F45" s="15">
+        <v>0</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17">
+        <v>112390</v>
+      </c>
+      <c r="F46" s="17">
+        <v>136307</v>
+      </c>
+      <c r="G46" s="17">
+        <v>135374</v>
+      </c>
+      <c r="H46" s="17">
+        <v>89522</v>
+      </c>
+      <c r="I46" s="17">
+        <v>104350</v>
+      </c>
+      <c r="J46" s="17">
         <v>117851</v>
       </c>
-      <c r="F46" s="17">
-        <v>0</v>
-      </c>
-      <c r="G46" s="17">
+      <c r="K46" s="17">
+        <v>146328</v>
+      </c>
+      <c r="L46" s="17">
         <v>135723</v>
       </c>
-      <c r="H46" s="17">
+      <c r="M46" s="17">
         <v>144868</v>
       </c>
-      <c r="I46" s="17">
+      <c r="N46" s="17">
         <v>161087</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1662,8 +2257,13 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1672,8 +2272,13 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1682,10 +2287,15 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -1704,8 +2314,23 @@
       <c r="I50" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1714,10 +2339,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -1726,368 +2356,598 @@
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>1812969</v>
+      </c>
+      <c r="F53" s="11">
+        <v>-193457</v>
+      </c>
+      <c r="G53" s="11">
+        <v>403822</v>
+      </c>
+      <c r="H53" s="11">
+        <v>2482197</v>
+      </c>
+      <c r="I53" s="11">
+        <v>7498712</v>
+      </c>
+      <c r="J53" s="11">
         <v>17567014</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="11">
+      <c r="K53" s="11">
+        <v>34685143</v>
+      </c>
+      <c r="L53" s="11">
         <v>24773301</v>
       </c>
-      <c r="H53" s="11">
-        <v>31033274</v>
-      </c>
-      <c r="I53" s="11">
-        <v>61834029</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M53" s="11">
+        <v>31033275</v>
+      </c>
+      <c r="N53" s="11">
+        <v>61834028</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="F54" s="13">
+        <v>71952</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
+        <v>8218551</v>
+      </c>
+      <c r="F55" s="11">
+        <v>17744958</v>
+      </c>
+      <c r="G55" s="11">
+        <v>16029152</v>
+      </c>
+      <c r="H55" s="11">
+        <v>10440298</v>
+      </c>
+      <c r="I55" s="11">
+        <v>21313608</v>
+      </c>
+      <c r="J55" s="11">
         <v>19761981</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="11">
+      <c r="K55" s="11">
+        <v>18431201</v>
+      </c>
+      <c r="L55" s="11">
         <v>26748042</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>46802854</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>34832341</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>56908560</v>
+      </c>
+      <c r="F56" s="13">
+        <v>62390420</v>
+      </c>
+      <c r="G56" s="13">
+        <v>65230551</v>
+      </c>
+      <c r="H56" s="13">
+        <v>79861173</v>
+      </c>
+      <c r="I56" s="13">
+        <v>118350157</v>
+      </c>
+      <c r="J56" s="13">
         <v>93082104</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="13">
+      <c r="K56" s="13">
+        <v>80272539</v>
+      </c>
+      <c r="L56" s="13">
         <v>147150190</v>
       </c>
-      <c r="H56" s="13">
-        <v>55217275</v>
-      </c>
-      <c r="I56" s="13">
-        <v>153331819</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M56" s="13">
+        <v>75745553</v>
+      </c>
+      <c r="N56" s="13">
+        <v>132803541</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>73573</v>
+      </c>
+      <c r="F57" s="11">
+        <v>9137388</v>
+      </c>
+      <c r="G57" s="11">
+        <v>6004516</v>
+      </c>
+      <c r="H57" s="11">
+        <v>2076964</v>
+      </c>
+      <c r="I57" s="11">
+        <v>14007426</v>
+      </c>
+      <c r="J57" s="11">
         <v>15106713</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="11">
+      <c r="K57" s="11">
+        <v>14962614</v>
+      </c>
+      <c r="L57" s="11">
         <v>28022450</v>
       </c>
-      <c r="H57" s="11">
-        <v>11674784</v>
-      </c>
-      <c r="I57" s="11">
-        <v>16082955</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M57" s="11">
+        <v>11674785</v>
+      </c>
+      <c r="N57" s="11">
+        <v>16082954</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>13878301</v>
+      </c>
+      <c r="F58" s="13">
+        <v>20016501</v>
+      </c>
+      <c r="G58" s="13">
+        <v>33826267</v>
+      </c>
+      <c r="H58" s="13">
+        <v>16766830</v>
+      </c>
+      <c r="I58" s="13">
+        <v>24481350</v>
+      </c>
+      <c r="J58" s="13">
         <v>25569028</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="13">
+      <c r="K58" s="13">
+        <v>76157893</v>
+      </c>
+      <c r="L58" s="13">
         <v>50850545</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>65615562</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>68589922</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>13</v>
+      <c r="E59" s="11">
+        <v>0</v>
       </c>
       <c r="F59" s="11">
-        <v>0</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>13</v>
+        <v>-105</v>
+      </c>
+      <c r="G59" s="11">
+        <v>0</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="11">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
+        <v>61269682</v>
+      </c>
+      <c r="F60" s="13">
+        <v>91542784</v>
+      </c>
+      <c r="G60" s="13">
+        <v>106578984</v>
+      </c>
+      <c r="H60" s="13">
+        <v>82084511</v>
+      </c>
+      <c r="I60" s="13">
+        <v>81911221</v>
+      </c>
+      <c r="J60" s="13">
         <v>105859699</v>
       </c>
-      <c r="F60" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="13">
+      <c r="K60" s="13">
+        <v>130668817</v>
+      </c>
+      <c r="L60" s="13">
         <v>144271894</v>
       </c>
-      <c r="H60" s="13">
-        <v>145073875</v>
-      </c>
-      <c r="I60" s="13">
-        <v>170563574</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M60" s="13">
+        <v>145073874</v>
+      </c>
+      <c r="N60" s="13">
+        <v>170563575</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>13</v>
+      <c r="E61" s="11">
+        <v>919367</v>
       </c>
       <c r="F61" s="11">
-        <v>0</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>13</v>
+        <v>1722383</v>
+      </c>
+      <c r="G61" s="11">
+        <v>1125767</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="11">
+        <v>0</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D62" s="13"/>
-      <c r="E62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="13">
-        <v>0</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>13</v>
+      <c r="E62" s="13">
+        <v>51366</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="13">
+        <v>139306</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="13">
+        <v>0</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="11">
-        <v>0</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="11">
+        <v>0</v>
+      </c>
+      <c r="L63" s="11">
+        <v>0</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D64" s="13"/>
-      <c r="E64" s="13" t="s">
-        <v>13</v>
+      <c r="E64" s="13">
+        <v>43523</v>
       </c>
       <c r="F64" s="13">
-        <v>0</v>
+        <v>-210</v>
       </c>
       <c r="G64" s="13">
-        <v>0</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>13</v>
+        <v>9450</v>
+      </c>
+      <c r="H64" s="13">
+        <v>2823</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" s="13">
+        <v>0</v>
+      </c>
+      <c r="L64" s="13">
+        <v>0</v>
+      </c>
+      <c r="M64" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="11">
+        <v>0</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="13">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H66" s="13">
-        <v>0</v>
-      </c>
-      <c r="I66" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>5092</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" s="13">
+        <v>0</v>
+      </c>
+      <c r="L66" s="13">
+        <v>0</v>
+      </c>
+      <c r="M66" s="13">
+        <v>0</v>
+      </c>
+      <c r="N66" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15">
+        <v>143175892</v>
+      </c>
+      <c r="F67" s="15">
+        <v>202432614</v>
+      </c>
+      <c r="G67" s="15">
+        <v>229347815</v>
+      </c>
+      <c r="H67" s="15">
+        <v>193719888</v>
+      </c>
+      <c r="I67" s="15">
+        <v>267562474</v>
+      </c>
+      <c r="J67" s="15">
         <v>276946539</v>
       </c>
-      <c r="F67" s="15">
-        <v>0</v>
-      </c>
-      <c r="G67" s="15">
+      <c r="K67" s="15">
+        <v>355178207</v>
+      </c>
+      <c r="L67" s="15">
         <v>421816422</v>
       </c>
-      <c r="H67" s="15">
-        <v>355417624</v>
-      </c>
-      <c r="I67" s="15">
-        <v>505234640</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M67" s="15">
+        <v>375945903</v>
+      </c>
+      <c r="N67" s="15">
+        <v>484706361</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -2096,320 +2956,520 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G69" s="11">
+        <v>0</v>
+      </c>
+      <c r="H69" s="11">
+        <v>0</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D70" s="13"/>
-      <c r="E70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>13</v>
+      <c r="E70" s="13">
+        <v>0</v>
+      </c>
+      <c r="F70" s="13">
+        <v>0</v>
+      </c>
+      <c r="G70" s="13">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
+        <v>0</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>13</v>
+      <c r="E71" s="11">
+        <v>0</v>
+      </c>
+      <c r="F71" s="11">
+        <v>0</v>
+      </c>
+      <c r="G71" s="11">
+        <v>0</v>
+      </c>
+      <c r="H71" s="11">
+        <v>0</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D72" s="13"/>
-      <c r="E72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>13</v>
+      <c r="E72" s="13">
+        <v>0</v>
+      </c>
+      <c r="F72" s="13">
+        <v>0</v>
+      </c>
+      <c r="G72" s="13">
+        <v>0</v>
+      </c>
+      <c r="H72" s="13">
+        <v>0</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>13</v>
+      <c r="E73" s="11">
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <v>45570</v>
+      </c>
+      <c r="H73" s="11">
+        <v>0</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D74" s="13"/>
-      <c r="E74" s="13" t="s">
-        <v>13</v>
+      <c r="E74" s="13">
+        <v>0</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G74" s="13">
+        <v>0</v>
+      </c>
+      <c r="H74" s="13">
+        <v>0</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>13</v>
+      <c r="E75" s="11">
+        <v>0</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G75" s="11">
+        <v>0</v>
+      </c>
+      <c r="H75" s="11">
+        <v>0</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D76" s="13"/>
-      <c r="E76" s="13" t="s">
-        <v>13</v>
+      <c r="E76" s="13">
+        <v>0</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
-        <v>13</v>
+      <c r="E77" s="11">
+        <v>0</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G77" s="11">
+        <v>0</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M77" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
+        <v>434289</v>
+      </c>
+      <c r="F78" s="13">
+        <v>493596</v>
+      </c>
+      <c r="G78" s="13">
+        <v>1438514</v>
+      </c>
+      <c r="H78" s="13">
+        <v>749203</v>
+      </c>
+      <c r="I78" s="13">
+        <v>2218879</v>
+      </c>
+      <c r="J78" s="13">
         <v>960492</v>
       </c>
-      <c r="F78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K78" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11">
+      <c r="E79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79" s="11">
+        <v>137078</v>
+      </c>
+      <c r="J79" s="11">
         <v>73383</v>
       </c>
-      <c r="F79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="11">
-        <v>0</v>
-      </c>
-      <c r="H79" s="11">
+      <c r="K79" s="11">
+        <v>282970</v>
+      </c>
+      <c r="L79" s="11">
+        <v>0</v>
+      </c>
+      <c r="M79" s="11">
         <v>26674</v>
       </c>
-      <c r="I79" s="11">
+      <c r="N79" s="11">
         <v>26498</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="13">
+        <v>19</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" s="13">
+        <v>4678693</v>
+      </c>
+      <c r="L80" s="13">
         <v>573852</v>
       </c>
-      <c r="H80" s="13">
+      <c r="M80" s="13">
         <v>518577</v>
       </c>
-      <c r="I80" s="13">
+      <c r="N80" s="13">
         <v>657158</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15">
+        <v>434289</v>
+      </c>
+      <c r="F81" s="15">
+        <v>493596</v>
+      </c>
+      <c r="G81" s="15">
+        <v>1484084</v>
+      </c>
+      <c r="H81" s="15">
+        <v>749203</v>
+      </c>
+      <c r="I81" s="15">
+        <v>2355957</v>
+      </c>
+      <c r="J81" s="15">
         <v>1033875</v>
       </c>
-      <c r="F81" s="15">
-        <v>0</v>
-      </c>
-      <c r="G81" s="15">
+      <c r="K81" s="15">
+        <v>4961663</v>
+      </c>
+      <c r="L81" s="15">
         <v>573852</v>
       </c>
-      <c r="H81" s="15">
+      <c r="M81" s="15">
         <v>545251</v>
       </c>
-      <c r="I81" s="15">
+      <c r="N81" s="15">
         <v>683656</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -2418,58 +3478,93 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I83" s="11">
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I84" s="13">
+        <v>0</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
@@ -2488,78 +3583,138 @@
       <c r="I85" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="15">
+        <v>0</v>
+      </c>
+      <c r="K85" s="15">
+        <v>0</v>
+      </c>
+      <c r="L85" s="15">
+        <v>0</v>
+      </c>
+      <c r="M85" s="15">
+        <v>0</v>
+      </c>
+      <c r="N85" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D86" s="17"/>
-      <c r="E86" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="17" t="s">
-        <v>13</v>
+      <c r="E86" s="17">
+        <v>0</v>
+      </c>
+      <c r="F86" s="17">
+        <v>0</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I86" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M86" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N86" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
         <v>0</v>
       </c>
-      <c r="F87" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="15">
-        <v>0</v>
-      </c>
-      <c r="H87" s="15">
-        <v>0</v>
+      <c r="F87" s="15">
+        <v>0</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I87" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="15">
+        <v>0</v>
+      </c>
+      <c r="K87" s="15">
+        <v>0</v>
+      </c>
+      <c r="L87" s="15">
+        <v>0</v>
+      </c>
+      <c r="M87" s="15">
+        <v>0</v>
+      </c>
+      <c r="N87" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
       <c r="E88" s="17">
+        <v>143610181</v>
+      </c>
+      <c r="F88" s="17">
+        <v>202926210</v>
+      </c>
+      <c r="G88" s="17">
+        <v>230831899</v>
+      </c>
+      <c r="H88" s="17">
+        <v>194469091</v>
+      </c>
+      <c r="I88" s="17">
+        <v>269918431</v>
+      </c>
+      <c r="J88" s="17">
         <v>277980414</v>
       </c>
-      <c r="F88" s="17">
-        <v>0</v>
-      </c>
-      <c r="G88" s="17">
+      <c r="K88" s="17">
+        <v>360139870</v>
+      </c>
+      <c r="L88" s="17">
         <v>422390274</v>
       </c>
-      <c r="H88" s="17">
-        <v>355962875</v>
-      </c>
-      <c r="I88" s="17">
-        <v>505918296</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M88" s="17">
+        <v>376491154</v>
+      </c>
+      <c r="N88" s="17">
+        <v>485390017</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2568,8 +3723,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2578,8 +3738,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2588,10 +3753,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2610,8 +3780,23 @@
       <c r="I92" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2620,10 +3805,15 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -2632,346 +3822,561 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
+        <v>1685742674</v>
+      </c>
+      <c r="F95" s="11">
+        <v>1726780612</v>
+      </c>
+      <c r="G95" s="11">
+        <v>1897296672</v>
+      </c>
+      <c r="H95" s="11">
+        <v>1930168740</v>
+      </c>
+      <c r="I95" s="11">
+        <v>2502772135</v>
+      </c>
+      <c r="J95" s="11">
         <v>3118035854</v>
       </c>
-      <c r="F95" s="11">
+      <c r="K95" s="11">
         <v>4683384148</v>
       </c>
-      <c r="G95" s="11">
+      <c r="L95" s="11">
         <v>4717825367</v>
       </c>
-      <c r="H95" s="11">
-        <v>4007395919</v>
-      </c>
-      <c r="I95" s="11">
-        <v>4171492208</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M95" s="11">
+        <v>4007396049</v>
+      </c>
+      <c r="N95" s="11">
+        <v>4171492141</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D96" s="13"/>
       <c r="E96" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="F96" s="13">
+        <v>430850299</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M96" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N96" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>676423951</v>
+      </c>
+      <c r="F97" s="11">
+        <v>896844132</v>
+      </c>
+      <c r="G97" s="11">
+        <v>1100374271</v>
+      </c>
+      <c r="H97" s="11">
+        <v>1194268817</v>
+      </c>
+      <c r="I97" s="11">
+        <v>1369417116</v>
+      </c>
+      <c r="J97" s="11">
         <v>1444483663</v>
       </c>
-      <c r="F97" s="11">
+      <c r="K97" s="11">
         <v>1526014324</v>
       </c>
-      <c r="G97" s="11">
+      <c r="L97" s="11">
         <v>1978259152</v>
       </c>
-      <c r="H97" s="11">
+      <c r="M97" s="11">
         <v>2060710373</v>
       </c>
-      <c r="I97" s="11">
+      <c r="N97" s="11">
         <v>2167538332</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M98" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>593330645</v>
+      </c>
+      <c r="F99" s="11">
+        <v>1313220466</v>
+      </c>
+      <c r="G99" s="11">
+        <v>1575988451</v>
+      </c>
+      <c r="H99" s="11">
+        <v>1579440304</v>
+      </c>
+      <c r="I99" s="11">
+        <v>1582760000</v>
+      </c>
+      <c r="J99" s="11">
         <v>1597241806</v>
       </c>
-      <c r="F99" s="11">
+      <c r="K99" s="11">
         <v>1708841252</v>
       </c>
-      <c r="G99" s="11">
+      <c r="L99" s="11">
         <v>1907846541</v>
       </c>
-      <c r="H99" s="11">
-        <v>1911079391</v>
-      </c>
-      <c r="I99" s="11">
-        <v>1883470547</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M99" s="11">
+        <v>1911079555</v>
+      </c>
+      <c r="N99" s="11">
+        <v>1883470430</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
+        <v>1184863058</v>
+      </c>
+      <c r="F100" s="13">
+        <v>1504773793</v>
+      </c>
+      <c r="G100" s="13">
+        <v>1618854291</v>
+      </c>
+      <c r="H100" s="13">
+        <v>1812630270</v>
+      </c>
+      <c r="I100" s="13">
+        <v>2171872782</v>
+      </c>
+      <c r="J100" s="13">
         <v>2677945957</v>
       </c>
-      <c r="F100" s="13">
+      <c r="K100" s="13">
         <v>2965303625</v>
       </c>
-      <c r="G100" s="13">
+      <c r="L100" s="13">
         <v>3262159674</v>
       </c>
-      <c r="H100" s="13">
+      <c r="M100" s="13">
         <v>3068728931</v>
       </c>
-      <c r="I100" s="13">
+      <c r="N100" s="13">
         <v>3321385018</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D101" s="11"/>
       <c r="E101" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J101" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L101" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N101" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D102" s="13"/>
       <c r="E102" s="13">
+        <v>719668319</v>
+      </c>
+      <c r="F102" s="13">
+        <v>955343939</v>
+      </c>
+      <c r="G102" s="13">
+        <v>1113668034</v>
+      </c>
+      <c r="H102" s="13">
+        <v>1190907800</v>
+      </c>
+      <c r="I102" s="13">
+        <v>1292749929</v>
+      </c>
+      <c r="J102" s="13">
         <v>1341643524</v>
       </c>
-      <c r="F102" s="13">
+      <c r="K102" s="13">
         <v>1470667608</v>
       </c>
-      <c r="G102" s="13">
+      <c r="L102" s="13">
         <v>1671922842</v>
       </c>
-      <c r="H102" s="13">
-        <v>1674773155</v>
-      </c>
-      <c r="I102" s="13">
-        <v>1699060376</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M102" s="13">
+        <v>1674773143</v>
+      </c>
+      <c r="N102" s="13">
+        <v>1699060386</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" s="11" t="s">
-        <v>13</v>
+      <c r="E103" s="11">
+        <v>534205113</v>
+      </c>
+      <c r="F103" s="11">
+        <v>1077162602</v>
+      </c>
+      <c r="G103" s="11">
+        <v>1082468269</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J103" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M103" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N103" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D104" s="13"/>
-      <c r="E104" s="13" t="s">
-        <v>13</v>
+      <c r="E104" s="13">
+        <v>424512397</v>
       </c>
       <c r="F104" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G104" s="13">
+        <v>419596386</v>
       </c>
       <c r="H104" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I104" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J104" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L104" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M104" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N104" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D106" s="13"/>
-      <c r="E106" s="13" t="s">
-        <v>13</v>
+      <c r="E106" s="13">
+        <v>453364583</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G106" s="13">
+        <v>-9450000000</v>
+      </c>
+      <c r="H106" s="13">
+        <v>2823000000</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J107" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L107" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N107" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D108" s="13"/>
       <c r="E108" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="H108" s="13">
+        <v>2546000000</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J108" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K108" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M108" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N108" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
@@ -2980,298 +4385,483 @@
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G110" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N110" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J111" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N111" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N112" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L113" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M113" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N113" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G114" s="11">
+        <v>1519000000</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M114" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N114" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H115" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K115" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L115" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M115" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N115" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N116" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J117" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K117" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L117" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M117" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N117" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13">
+        <v>1507947917</v>
+      </c>
+      <c r="F119" s="13">
+        <v>2285166667</v>
+      </c>
+      <c r="G119" s="13">
+        <v>1461904472</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" s="13">
+        <v>1004472159</v>
+      </c>
+      <c r="J119" s="13">
         <v>1667520833</v>
       </c>
-      <c r="F119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I119" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K119" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L119" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M119" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N119" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D120" s="11"/>
-      <c r="E120" s="11">
+      <c r="E120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" s="11">
+        <v>1413175258</v>
+      </c>
+      <c r="J120" s="11">
         <v>1438882353</v>
       </c>
-      <c r="F120" s="11">
+      <c r="K120" s="11">
         <v>1458608247</v>
       </c>
-      <c r="G120" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H120" s="11">
+      <c r="L120" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M120" s="11">
         <v>2667400000</v>
       </c>
-      <c r="I120" s="11">
+      <c r="N120" s="11">
         <v>2208166667</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="13">
+        <v>19</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" s="13">
         <v>1392053853</v>
       </c>
-      <c r="G121" s="13">
+      <c r="L121" s="13">
         <v>1494406250</v>
       </c>
-      <c r="H121" s="13">
+      <c r="M121" s="13">
         <v>1800614583</v>
       </c>
-      <c r="I121" s="13">
+      <c r="N121" s="13">
         <v>1086211570</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -3280,56 +4870,91 @@
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G123" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L123" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N123" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H124" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L124" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M124" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N124" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3338,8 +4963,13 @@
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3348,8 +4978,13 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3358,10 +4993,15 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B128" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3380,8 +5020,23 @@
       <c r="I128" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3390,10 +5045,15 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
@@ -3402,368 +5062,598 @@
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11">
+        <v>-4447034</v>
+      </c>
+      <c r="F131" s="11">
+        <v>-1017213</v>
+      </c>
+      <c r="G131" s="11">
+        <v>-10188946</v>
+      </c>
+      <c r="H131" s="11">
+        <v>-4340243</v>
+      </c>
+      <c r="I131" s="11">
+        <v>-8959774</v>
+      </c>
+      <c r="J131" s="11">
         <v>-14781641</v>
       </c>
-      <c r="F131" s="11">
+      <c r="K131" s="11">
         <v>-30248408</v>
       </c>
-      <c r="G131" s="11">
+      <c r="L131" s="11">
         <v>-22719610</v>
       </c>
-      <c r="H131" s="11">
-        <v>-27393451</v>
-      </c>
-      <c r="I131" s="11">
-        <v>-54601280</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M131" s="11">
+        <v>-28101158</v>
+      </c>
+      <c r="N131" s="11">
+        <v>-53893573</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="F132" s="13">
+        <v>-89249</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I132" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K132" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L132" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M132" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N132" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="11">
+        <v>-12672454</v>
+      </c>
+      <c r="F133" s="11">
+        <v>-22019023</v>
+      </c>
+      <c r="G133" s="11">
+        <v>-23552396</v>
+      </c>
+      <c r="H133" s="11">
+        <v>-13162585</v>
+      </c>
+      <c r="I133" s="11">
+        <v>-26270258</v>
+      </c>
+      <c r="J133" s="11">
         <v>-26967394</v>
       </c>
-      <c r="F133" s="11">
+      <c r="K133" s="11">
         <v>-21559269</v>
       </c>
-      <c r="G133" s="11">
+      <c r="L133" s="11">
         <v>-29928997</v>
       </c>
-      <c r="H133" s="11">
-        <v>-53780440</v>
-      </c>
-      <c r="I133" s="11">
-        <v>-38665947</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M133" s="11">
+        <v>-53138169</v>
+      </c>
+      <c r="N133" s="11">
+        <v>-39308218</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D134" s="13"/>
       <c r="E134" s="13">
+        <v>-55992629</v>
+      </c>
+      <c r="F134" s="13">
+        <v>-63780318</v>
+      </c>
+      <c r="G134" s="13">
+        <v>-61670069</v>
+      </c>
+      <c r="H134" s="13">
+        <v>-76217212</v>
+      </c>
+      <c r="I134" s="13">
+        <v>-88451953</v>
+      </c>
+      <c r="J134" s="13">
         <v>-77335803</v>
       </c>
-      <c r="F134" s="13">
+      <c r="K134" s="13">
         <v>-107642371</v>
       </c>
-      <c r="G134" s="13">
+      <c r="L134" s="13">
         <v>-133298210</v>
       </c>
-      <c r="H134" s="13">
-        <v>-50885459</v>
-      </c>
-      <c r="I134" s="13">
-        <v>-145641725</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M134" s="13">
+        <v>-68518292</v>
+      </c>
+      <c r="N134" s="13">
+        <v>-128008892</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="11">
+        <v>52298</v>
+      </c>
+      <c r="F135" s="11">
+        <v>-7265667</v>
+      </c>
+      <c r="G135" s="11">
+        <v>-5846083</v>
+      </c>
+      <c r="H135" s="11">
+        <v>-1610993</v>
+      </c>
+      <c r="I135" s="11">
+        <v>-13693527</v>
+      </c>
+      <c r="J135" s="11">
         <v>-15817525</v>
       </c>
-      <c r="F135" s="11">
+      <c r="K135" s="11">
         <v>-15345748</v>
       </c>
-      <c r="G135" s="11">
+      <c r="L135" s="11">
         <v>-25625142</v>
       </c>
-      <c r="H135" s="11">
-        <v>-13230327</v>
-      </c>
-      <c r="I135" s="11">
-        <v>-19412562</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M135" s="11">
+        <v>-14971658</v>
+      </c>
+      <c r="N135" s="11">
+        <v>-17671231</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D136" s="13"/>
       <c r="E136" s="13">
+        <v>-16079293</v>
+      </c>
+      <c r="F136" s="13">
+        <v>-20184640</v>
+      </c>
+      <c r="G136" s="13">
+        <v>-37948248</v>
+      </c>
+      <c r="H136" s="13">
+        <v>-16079214</v>
+      </c>
+      <c r="I136" s="13">
+        <v>-26411256</v>
+      </c>
+      <c r="J136" s="13">
         <v>-25886754</v>
       </c>
-      <c r="F136" s="13">
+      <c r="K136" s="13">
         <v>-69666294</v>
       </c>
-      <c r="G136" s="13">
+      <c r="L136" s="13">
         <v>-50774518</v>
       </c>
-      <c r="H136" s="13">
-        <v>-68985839</v>
-      </c>
-      <c r="I136" s="13">
-        <v>-73004893</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M136" s="13">
+        <v>-72735982</v>
+      </c>
+      <c r="N136" s="13">
+        <v>-69254750</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>13</v>
+      <c r="E137" s="11">
+        <v>0</v>
       </c>
       <c r="F137" s="11">
         <v>0</v>
       </c>
-      <c r="G137" s="11" t="s">
-        <v>13</v>
+      <c r="G137" s="11">
+        <v>0</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J137" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K137" s="11">
+        <v>0</v>
+      </c>
+      <c r="L137" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M137" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N137" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13">
+        <v>-88575362</v>
+      </c>
+      <c r="F138" s="13">
+        <v>-94779403</v>
+      </c>
+      <c r="G138" s="13">
+        <v>-146130409</v>
+      </c>
+      <c r="H138" s="13">
+        <v>-95665349</v>
+      </c>
+      <c r="I138" s="13">
+        <v>-102063870</v>
+      </c>
+      <c r="J138" s="13">
         <v>-130690270</v>
       </c>
-      <c r="F138" s="13">
+      <c r="K138" s="13">
         <v>-140515447</v>
       </c>
-      <c r="G138" s="13">
+      <c r="L138" s="13">
         <v>-162043847</v>
       </c>
-      <c r="H138" s="13">
-        <v>-184653032</v>
-      </c>
-      <c r="I138" s="13">
-        <v>-225443457</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M138" s="13">
+        <v>-195321358</v>
+      </c>
+      <c r="N138" s="13">
+        <v>-214775131</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D139" s="11"/>
-      <c r="E139" s="11" t="s">
-        <v>13</v>
+      <c r="E139" s="11">
+        <v>-1189566</v>
       </c>
       <c r="F139" s="11">
-        <v>0</v>
-      </c>
-      <c r="G139" s="11" t="s">
-        <v>13</v>
+        <v>-1053986</v>
+      </c>
+      <c r="G139" s="11">
+        <v>-1138623</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J139" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K139" s="11">
+        <v>0</v>
+      </c>
+      <c r="L139" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M139" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N139" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D140" s="13"/>
-      <c r="E140" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" s="13">
-        <v>0</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" s="13" t="s">
-        <v>13</v>
+      <c r="E140" s="13">
+        <v>-64387</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" s="13">
+        <v>-177713</v>
+      </c>
+      <c r="H140" s="13">
+        <v>0</v>
       </c>
       <c r="I140" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J140" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K140" s="13">
+        <v>0</v>
+      </c>
+      <c r="L140" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M140" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N140" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" s="11">
-        <v>0</v>
-      </c>
-      <c r="G141" s="11">
-        <v>0</v>
-      </c>
-      <c r="H141" s="11">
-        <v>0</v>
-      </c>
-      <c r="I141" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I141" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K141" s="11">
+        <v>0</v>
+      </c>
+      <c r="L141" s="11">
+        <v>0</v>
+      </c>
+      <c r="M141" s="11">
+        <v>0</v>
+      </c>
+      <c r="N141" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D142" s="13"/>
-      <c r="E142" s="13" t="s">
-        <v>13</v>
+      <c r="E142" s="13">
+        <v>-100178</v>
       </c>
       <c r="F142" s="13">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="G142" s="13">
-        <v>0</v>
-      </c>
-      <c r="H142" s="13" t="s">
-        <v>13</v>
+        <v>-7247</v>
+      </c>
+      <c r="H142" s="13">
+        <v>-1135</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J142" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K142" s="13">
+        <v>0</v>
+      </c>
+      <c r="L142" s="13">
+        <v>0</v>
+      </c>
+      <c r="M142" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N142" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C143" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D143" s="11"/>
       <c r="E143" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H143" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K143" s="11">
+        <v>0</v>
+      </c>
+      <c r="L143" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M143" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N143" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D144" s="13"/>
       <c r="E144" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F144" s="13">
-        <v>0</v>
-      </c>
-      <c r="G144" s="13">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H144" s="13">
-        <v>0</v>
-      </c>
-      <c r="I144" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-3103</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J144" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K144" s="13">
+        <v>0</v>
+      </c>
+      <c r="L144" s="13">
+        <v>0</v>
+      </c>
+      <c r="M144" s="13">
+        <v>0</v>
+      </c>
+      <c r="N144" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
       <c r="E145" s="15">
+        <v>-179068605</v>
+      </c>
+      <c r="F145" s="15">
+        <v>-210188659</v>
+      </c>
+      <c r="G145" s="15">
+        <v>-286659734</v>
+      </c>
+      <c r="H145" s="15">
+        <v>-207079834</v>
+      </c>
+      <c r="I145" s="15">
+        <v>-265850638</v>
+      </c>
+      <c r="J145" s="15">
         <v>-291479387</v>
       </c>
-      <c r="F145" s="15">
+      <c r="K145" s="15">
         <v>-384977537</v>
       </c>
-      <c r="G145" s="15">
+      <c r="L145" s="15">
         <v>-424390324</v>
       </c>
-      <c r="H145" s="15">
-        <v>-398928548</v>
-      </c>
-      <c r="I145" s="15">
-        <v>-556769864</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M145" s="15">
+        <v>-432786617</v>
+      </c>
+      <c r="N145" s="15">
+        <v>-522911795</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
@@ -3772,320 +5662,520 @@
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9"/>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G147" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H147" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G147" s="11">
+        <v>0</v>
+      </c>
+      <c r="H147" s="11">
+        <v>0</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M147" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N147" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D148" s="13"/>
-      <c r="E148" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F148" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H148" s="13" t="s">
-        <v>13</v>
+      <c r="E148" s="13">
+        <v>0</v>
+      </c>
+      <c r="F148" s="13">
+        <v>0</v>
+      </c>
+      <c r="G148" s="13">
+        <v>0</v>
+      </c>
+      <c r="H148" s="13">
+        <v>0</v>
       </c>
       <c r="I148" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J148" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K148" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L148" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M148" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N148" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D149" s="11"/>
-      <c r="E149" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F149" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" s="11" t="s">
-        <v>13</v>
+      <c r="E149" s="11">
+        <v>0</v>
+      </c>
+      <c r="F149" s="11">
+        <v>0</v>
+      </c>
+      <c r="G149" s="11">
+        <v>0</v>
+      </c>
+      <c r="H149" s="11">
+        <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J149" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K149" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L149" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M149" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N149" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D150" s="13"/>
-      <c r="E150" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F150" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H150" s="13" t="s">
-        <v>13</v>
+      <c r="E150" s="13">
+        <v>0</v>
+      </c>
+      <c r="F150" s="13">
+        <v>0</v>
+      </c>
+      <c r="G150" s="13">
+        <v>0</v>
+      </c>
+      <c r="H150" s="13">
+        <v>0</v>
       </c>
       <c r="I150" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K150" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L150" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M150" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N150" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D151" s="11"/>
-      <c r="E151" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" s="11" t="s">
-        <v>13</v>
+      <c r="E151" s="11">
+        <v>0</v>
+      </c>
+      <c r="F151" s="11">
+        <v>0</v>
+      </c>
+      <c r="G151" s="11">
+        <v>-33780</v>
+      </c>
+      <c r="H151" s="11">
+        <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J151" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K151" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L151" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M151" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N151" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D152" s="13"/>
-      <c r="E152" s="13" t="s">
-        <v>13</v>
+      <c r="E152" s="13">
+        <v>0</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G152" s="13">
+        <v>0</v>
+      </c>
+      <c r="H152" s="13">
+        <v>0</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J152" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K152" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L152" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M152" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N152" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D153" s="11"/>
-      <c r="E153" s="11" t="s">
-        <v>13</v>
+      <c r="E153" s="11">
+        <v>0</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H153" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G153" s="11">
+        <v>0</v>
+      </c>
+      <c r="H153" s="11">
+        <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J153" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K153" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L153" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M153" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N153" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D154" s="13"/>
-      <c r="E154" s="13" t="s">
-        <v>13</v>
+      <c r="E154" s="13">
+        <v>0</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H154" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J154" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K154" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L154" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M154" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N154" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D155" s="11"/>
-      <c r="E155" s="11" t="s">
-        <v>13</v>
+      <c r="E155" s="11">
+        <v>0</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G155" s="11">
+        <v>0</v>
+      </c>
+      <c r="H155" s="11">
+        <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J155" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K155" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L155" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M155" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N155" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D156" s="13"/>
       <c r="E156" s="13">
+        <v>-434289</v>
+      </c>
+      <c r="F156" s="13">
+        <v>-493596</v>
+      </c>
+      <c r="G156" s="13">
+        <v>-1438514</v>
+      </c>
+      <c r="H156" s="13">
+        <v>-749203</v>
+      </c>
+      <c r="I156" s="13">
+        <v>-2218879</v>
+      </c>
+      <c r="J156" s="13">
         <v>-960492</v>
       </c>
-      <c r="F156" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H156" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I156" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K156" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L156" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M156" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N156" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="11">
+      <c r="E157" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H157" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I157" s="11">
+        <v>-158622</v>
+      </c>
+      <c r="J157" s="11">
         <v>-74458</v>
       </c>
-      <c r="F157" s="11">
+      <c r="K157" s="11">
         <v>-375037</v>
       </c>
-      <c r="G157" s="11">
-        <v>0</v>
-      </c>
-      <c r="H157" s="11">
-        <v>-35480</v>
-      </c>
-      <c r="I157" s="11">
-        <v>-45199</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L157" s="11">
+        <v>0</v>
+      </c>
+      <c r="M157" s="11">
+        <v>-36260</v>
+      </c>
+      <c r="N157" s="11">
+        <v>-44419</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D158" s="13"/>
       <c r="E158" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" s="13">
+        <v>19</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H158" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I158" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J158" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K158" s="13">
         <v>-4678693</v>
       </c>
-      <c r="G158" s="13">
+      <c r="L158" s="13">
         <v>-573852</v>
       </c>
-      <c r="H158" s="13">
+      <c r="M158" s="13">
         <v>-518577</v>
       </c>
-      <c r="I158" s="13">
+      <c r="N158" s="13">
         <v>-657158</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15">
+        <v>-434289</v>
+      </c>
+      <c r="F159" s="15">
+        <v>-493596</v>
+      </c>
+      <c r="G159" s="15">
+        <v>-1472294</v>
+      </c>
+      <c r="H159" s="15">
+        <v>-749203</v>
+      </c>
+      <c r="I159" s="15">
+        <v>-2377501</v>
+      </c>
+      <c r="J159" s="15">
         <v>-1034950</v>
       </c>
-      <c r="F159" s="15">
+      <c r="K159" s="15">
         <v>-5053730</v>
       </c>
-      <c r="G159" s="15">
+      <c r="L159" s="15">
         <v>-573852</v>
       </c>
-      <c r="H159" s="15">
-        <v>-554057</v>
-      </c>
-      <c r="I159" s="15">
-        <v>-702357</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M159" s="15">
+        <v>-554837</v>
+      </c>
+      <c r="N159" s="15">
+        <v>-701577</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
@@ -4094,58 +6184,93 @@
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="9"/>
+      <c r="K160" s="9"/>
+      <c r="L160" s="9"/>
+      <c r="M160" s="9"/>
+      <c r="N160" s="9"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D161" s="11"/>
       <c r="E161" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G161" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H161" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I161" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I161" s="11">
+        <v>0</v>
+      </c>
+      <c r="J161" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K161" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L161" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M161" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N161" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D162" s="13"/>
       <c r="E162" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H162" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I162" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I162" s="13">
+        <v>0</v>
+      </c>
+      <c r="J162" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K162" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L162" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M162" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N162" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
@@ -4164,37 +6289,67 @@
       <c r="I163" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="15">
+        <v>0</v>
+      </c>
+      <c r="K163" s="15">
+        <v>0</v>
+      </c>
+      <c r="L163" s="15">
+        <v>0</v>
+      </c>
+      <c r="M163" s="15">
+        <v>0</v>
+      </c>
+      <c r="N163" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D164" s="17"/>
-      <c r="E164" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" s="17" t="s">
-        <v>13</v>
+      <c r="E164" s="17">
+        <v>0</v>
+      </c>
+      <c r="F164" s="17">
+        <v>0</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I164" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J164" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K164" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L164" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M164" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N164" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D165" s="15"/>
       <c r="E165" s="15">
@@ -4203,39 +6358,69 @@
       <c r="F165" s="15">
         <v>0</v>
       </c>
-      <c r="G165" s="15">
-        <v>0</v>
-      </c>
-      <c r="H165" s="15">
-        <v>0</v>
+      <c r="G165" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H165" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="I165" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J165" s="15">
+        <v>0</v>
+      </c>
+      <c r="K165" s="15">
+        <v>0</v>
+      </c>
+      <c r="L165" s="15">
+        <v>0</v>
+      </c>
+      <c r="M165" s="15">
+        <v>0</v>
+      </c>
+      <c r="N165" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C166" s="17"/>
       <c r="D166" s="17"/>
       <c r="E166" s="17">
+        <v>-179502894</v>
+      </c>
+      <c r="F166" s="17">
+        <v>-210682255</v>
+      </c>
+      <c r="G166" s="17">
+        <v>-288132028</v>
+      </c>
+      <c r="H166" s="17">
+        <v>-207829037</v>
+      </c>
+      <c r="I166" s="17">
+        <v>-268228139</v>
+      </c>
+      <c r="J166" s="17">
         <v>-292514337</v>
       </c>
-      <c r="F166" s="17">
+      <c r="K166" s="17">
         <v>-390031267</v>
       </c>
-      <c r="G166" s="17">
+      <c r="L166" s="17">
         <v>-424964176</v>
       </c>
-      <c r="H166" s="17">
-        <v>-399482605</v>
-      </c>
-      <c r="I166" s="17">
-        <v>-557472221</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M166" s="17">
+        <v>-433341454</v>
+      </c>
+      <c r="N166" s="17">
+        <v>-523613372</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4244,8 +6429,13 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4254,8 +6444,13 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4264,10 +6459,15 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -4286,8 +6486,23 @@
       <c r="I170" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J170" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K170" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L170" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M170" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N170" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4296,10 +6511,15 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -4308,368 +6528,598 @@
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
       <c r="I172" s="9"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="9"/>
+      <c r="K172" s="9"/>
+      <c r="L172" s="9"/>
+      <c r="M172" s="9"/>
+      <c r="N172" s="9"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D173" s="11"/>
       <c r="E173" s="11">
+        <v>-247849</v>
+      </c>
+      <c r="F173" s="11">
+        <v>-1866</v>
+      </c>
+      <c r="G173" s="11">
+        <v>-6825039</v>
+      </c>
+      <c r="H173" s="11">
+        <v>-1858046</v>
+      </c>
+      <c r="I173" s="11">
+        <v>-1461062</v>
+      </c>
+      <c r="J173" s="11">
         <v>2785373</v>
       </c>
-      <c r="F173" s="11">
+      <c r="K173" s="11">
         <v>4436735</v>
       </c>
-      <c r="G173" s="11">
+      <c r="L173" s="11">
         <v>2053691</v>
       </c>
-      <c r="H173" s="11">
-        <v>3639823</v>
-      </c>
-      <c r="I173" s="11">
-        <v>7232749</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M173" s="11">
+        <v>2932117</v>
+      </c>
+      <c r="N173" s="11">
+        <v>7940455</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D174" s="13"/>
       <c r="E174" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="F174" s="13">
+        <v>-17297</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H174" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J174" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K174" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L174" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M174" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N174" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="11">
+        <v>-4453903</v>
+      </c>
+      <c r="F175" s="11">
+        <v>-4274065</v>
+      </c>
+      <c r="G175" s="11">
+        <v>-7523244</v>
+      </c>
+      <c r="H175" s="11">
+        <v>-2722287</v>
+      </c>
+      <c r="I175" s="11">
+        <v>-4956650</v>
+      </c>
+      <c r="J175" s="11">
         <v>-7205413</v>
       </c>
-      <c r="F175" s="11">
+      <c r="K175" s="11">
         <v>-3128068</v>
       </c>
-      <c r="G175" s="11">
+      <c r="L175" s="11">
         <v>-3180955</v>
       </c>
-      <c r="H175" s="11">
-        <v>-6977586</v>
-      </c>
-      <c r="I175" s="11">
-        <v>-3833606</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M175" s="11">
+        <v>-6335315</v>
+      </c>
+      <c r="N175" s="11">
+        <v>-4475877</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D176" s="13"/>
       <c r="E176" s="13">
+        <v>915931</v>
+      </c>
+      <c r="F176" s="13">
+        <v>-1389898</v>
+      </c>
+      <c r="G176" s="13">
+        <v>3560482</v>
+      </c>
+      <c r="H176" s="13">
+        <v>3643961</v>
+      </c>
+      <c r="I176" s="13">
+        <v>29898204</v>
+      </c>
+      <c r="J176" s="13">
         <v>15746301</v>
       </c>
-      <c r="F176" s="13">
+      <c r="K176" s="13">
         <v>-27369832</v>
       </c>
-      <c r="G176" s="13">
+      <c r="L176" s="13">
         <v>13851980</v>
       </c>
-      <c r="H176" s="13">
-        <v>4331816</v>
-      </c>
-      <c r="I176" s="13">
-        <v>7690094</v>
-      </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M176" s="13">
+        <v>7227261</v>
+      </c>
+      <c r="N176" s="13">
+        <v>4794649</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D177" s="11"/>
       <c r="E177" s="11">
+        <v>125871</v>
+      </c>
+      <c r="F177" s="11">
+        <v>1871721</v>
+      </c>
+      <c r="G177" s="11">
+        <v>158433</v>
+      </c>
+      <c r="H177" s="11">
+        <v>465971</v>
+      </c>
+      <c r="I177" s="11">
+        <v>313899</v>
+      </c>
+      <c r="J177" s="11">
         <v>-710812</v>
       </c>
-      <c r="F177" s="11">
+      <c r="K177" s="11">
         <v>-383134</v>
       </c>
-      <c r="G177" s="11">
+      <c r="L177" s="11">
         <v>2397308</v>
       </c>
-      <c r="H177" s="11">
-        <v>-1555543</v>
-      </c>
-      <c r="I177" s="11">
-        <v>-3329607</v>
-      </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M177" s="11">
+        <v>-3296873</v>
+      </c>
+      <c r="N177" s="11">
+        <v>-1588277</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D178" s="13"/>
       <c r="E178" s="13">
+        <v>-2200992</v>
+      </c>
+      <c r="F178" s="13">
+        <v>-168139</v>
+      </c>
+      <c r="G178" s="13">
+        <v>-4128763</v>
+      </c>
+      <c r="H178" s="13">
+        <v>687616</v>
+      </c>
+      <c r="I178" s="13">
+        <v>-1929906</v>
+      </c>
+      <c r="J178" s="13">
         <v>-317726</v>
       </c>
-      <c r="F178" s="13">
+      <c r="K178" s="13">
         <v>6491599</v>
       </c>
-      <c r="G178" s="13">
+      <c r="L178" s="13">
         <v>76027</v>
       </c>
-      <c r="H178" s="13">
-        <v>-3370277</v>
-      </c>
-      <c r="I178" s="13">
-        <v>-4414971</v>
-      </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M178" s="13">
+        <v>-7120420</v>
+      </c>
+      <c r="N178" s="13">
+        <v>-664828</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D179" s="11"/>
-      <c r="E179" s="11" t="s">
-        <v>13</v>
+      <c r="E179" s="11">
+        <v>0</v>
       </c>
       <c r="F179" s="11">
-        <v>0</v>
-      </c>
-      <c r="G179" s="11" t="s">
-        <v>13</v>
+        <v>-105</v>
+      </c>
+      <c r="G179" s="11">
+        <v>0</v>
       </c>
       <c r="H179" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J179" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K179" s="11">
+        <v>0</v>
+      </c>
+      <c r="L179" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M179" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N179" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D180" s="13"/>
       <c r="E180" s="13">
+        <v>-27305680</v>
+      </c>
+      <c r="F180" s="13">
+        <v>-3408398</v>
+      </c>
+      <c r="G180" s="13">
+        <v>-39727224</v>
+      </c>
+      <c r="H180" s="13">
+        <v>-13580838</v>
+      </c>
+      <c r="I180" s="13">
+        <v>-20152649</v>
+      </c>
+      <c r="J180" s="13">
         <v>-24830571</v>
       </c>
-      <c r="F180" s="13">
+      <c r="K180" s="13">
         <v>-9846630</v>
       </c>
-      <c r="G180" s="13">
+      <c r="L180" s="13">
         <v>-17771953</v>
       </c>
-      <c r="H180" s="13">
-        <v>-39579157</v>
-      </c>
-      <c r="I180" s="13">
-        <v>-54879883</v>
-      </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M180" s="13">
+        <v>-50247484</v>
+      </c>
+      <c r="N180" s="13">
+        <v>-44211556</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D181" s="11"/>
-      <c r="E181" s="11" t="s">
-        <v>13</v>
+      <c r="E181" s="11">
+        <v>-270199</v>
       </c>
       <c r="F181" s="11">
-        <v>0</v>
-      </c>
-      <c r="G181" s="11" t="s">
-        <v>13</v>
+        <v>668397</v>
+      </c>
+      <c r="G181" s="11">
+        <v>-12856</v>
       </c>
       <c r="H181" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J181" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K181" s="11">
+        <v>0</v>
+      </c>
+      <c r="L181" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M181" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N181" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D182" s="13"/>
-      <c r="E182" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F182" s="13">
-        <v>0</v>
-      </c>
-      <c r="G182" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H182" s="13" t="s">
-        <v>13</v>
+      <c r="E182" s="13">
+        <v>-13021</v>
+      </c>
+      <c r="F182" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G182" s="13">
+        <v>-38407</v>
+      </c>
+      <c r="H182" s="13">
+        <v>0</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J182" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K182" s="13">
+        <v>0</v>
+      </c>
+      <c r="L182" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M182" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N182" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D183" s="11"/>
       <c r="E183" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" s="11">
-        <v>0</v>
-      </c>
-      <c r="G183" s="11">
-        <v>0</v>
-      </c>
-      <c r="H183" s="11">
-        <v>0</v>
-      </c>
-      <c r="I183" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G183" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I183" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J183" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K183" s="11">
+        <v>0</v>
+      </c>
+      <c r="L183" s="11">
+        <v>0</v>
+      </c>
+      <c r="M183" s="11">
+        <v>0</v>
+      </c>
+      <c r="N183" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D184" s="13"/>
-      <c r="E184" s="13" t="s">
-        <v>13</v>
+      <c r="E184" s="13">
+        <v>-56655</v>
       </c>
       <c r="F184" s="13">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="G184" s="13">
-        <v>0</v>
-      </c>
-      <c r="H184" s="13" t="s">
-        <v>13</v>
+        <v>2203</v>
+      </c>
+      <c r="H184" s="13">
+        <v>1688</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J184" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K184" s="13">
+        <v>0</v>
+      </c>
+      <c r="L184" s="13">
+        <v>0</v>
+      </c>
+      <c r="M184" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N184" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D185" s="11"/>
       <c r="E185" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F185" s="11">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H185" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J185" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K185" s="11">
+        <v>0</v>
+      </c>
+      <c r="L185" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M185" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N185" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D186" s="13"/>
       <c r="E186" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" s="13">
-        <v>0</v>
-      </c>
-      <c r="G186" s="13">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="F186" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G186" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="H186" s="13">
-        <v>0</v>
-      </c>
-      <c r="I186" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1989</v>
+      </c>
+      <c r="I186" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K186" s="13">
+        <v>0</v>
+      </c>
+      <c r="L186" s="13">
+        <v>0</v>
+      </c>
+      <c r="M186" s="13">
+        <v>0</v>
+      </c>
+      <c r="N186" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="14" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
       <c r="E187" s="15">
+        <v>-33506497</v>
+      </c>
+      <c r="F187" s="15">
+        <v>-6719020</v>
+      </c>
+      <c r="G187" s="15">
+        <v>-54534415</v>
+      </c>
+      <c r="H187" s="15">
+        <v>-13359946</v>
+      </c>
+      <c r="I187" s="15">
+        <v>1711836</v>
+      </c>
+      <c r="J187" s="15">
         <v>-14532848</v>
       </c>
-      <c r="F187" s="15">
+      <c r="K187" s="15">
         <v>-29799330</v>
       </c>
-      <c r="G187" s="15">
+      <c r="L187" s="15">
         <v>-2573902</v>
       </c>
-      <c r="H187" s="15">
-        <v>-43510924</v>
-      </c>
-      <c r="I187" s="15">
-        <v>-51535224</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M187" s="15">
+        <v>-56840714</v>
+      </c>
+      <c r="N187" s="15">
+        <v>-38205434</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
@@ -4678,320 +7128,520 @@
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
       <c r="I188" s="9"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J188" s="9"/>
+      <c r="K188" s="9"/>
+      <c r="L188" s="9"/>
+      <c r="M188" s="9"/>
+      <c r="N188" s="9"/>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D189" s="11"/>
       <c r="E189" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G189" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G189" s="11">
+        <v>0</v>
+      </c>
+      <c r="H189" s="11">
+        <v>0</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J189" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K189" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L189" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M189" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N189" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D190" s="13"/>
-      <c r="E190" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F190" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" s="13" t="s">
-        <v>13</v>
+      <c r="E190" s="13">
+        <v>0</v>
+      </c>
+      <c r="F190" s="13">
+        <v>0</v>
+      </c>
+      <c r="G190" s="13">
+        <v>0</v>
+      </c>
+      <c r="H190" s="13">
+        <v>0</v>
       </c>
       <c r="I190" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J190" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K190" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L190" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M190" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N190" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D191" s="11"/>
-      <c r="E191" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F191" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H191" s="11" t="s">
-        <v>13</v>
+      <c r="E191" s="11">
+        <v>0</v>
+      </c>
+      <c r="F191" s="11">
+        <v>0</v>
+      </c>
+      <c r="G191" s="11">
+        <v>0</v>
+      </c>
+      <c r="H191" s="11">
+        <v>0</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J191" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K191" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L191" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M191" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N191" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D192" s="13"/>
-      <c r="E192" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F192" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G192" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H192" s="13" t="s">
-        <v>13</v>
+      <c r="E192" s="13">
+        <v>0</v>
+      </c>
+      <c r="F192" s="13">
+        <v>0</v>
+      </c>
+      <c r="G192" s="13">
+        <v>0</v>
+      </c>
+      <c r="H192" s="13">
+        <v>0</v>
       </c>
       <c r="I192" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J192" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K192" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L192" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M192" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N192" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D193" s="11"/>
-      <c r="E193" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G193" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H193" s="11" t="s">
-        <v>13</v>
+      <c r="E193" s="11">
+        <v>0</v>
+      </c>
+      <c r="F193" s="11">
+        <v>0</v>
+      </c>
+      <c r="G193" s="11">
+        <v>11790</v>
+      </c>
+      <c r="H193" s="11">
+        <v>0</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J193" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K193" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L193" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M193" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N193" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D194" s="13"/>
-      <c r="E194" s="13" t="s">
-        <v>13</v>
+      <c r="E194" s="13">
+        <v>0</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G194" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H194" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G194" s="13">
+        <v>0</v>
+      </c>
+      <c r="H194" s="13">
+        <v>0</v>
       </c>
       <c r="I194" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J194" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K194" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L194" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M194" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N194" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D195" s="11"/>
-      <c r="E195" s="11" t="s">
-        <v>13</v>
+      <c r="E195" s="11">
+        <v>0</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G195" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H195" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G195" s="11">
+        <v>0</v>
+      </c>
+      <c r="H195" s="11">
+        <v>0</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J195" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K195" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L195" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M195" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N195" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D196" s="13"/>
-      <c r="E196" s="13" t="s">
-        <v>13</v>
+      <c r="E196" s="13">
+        <v>0</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G196" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H196" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I196" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J196" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K196" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L196" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M196" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N196" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C197" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D197" s="11"/>
-      <c r="E197" s="11" t="s">
-        <v>13</v>
+      <c r="E197" s="11">
+        <v>0</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G197" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H197" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="G197" s="11">
+        <v>0</v>
+      </c>
+      <c r="H197" s="11">
+        <v>0</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="J197" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K197" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L197" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M197" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N197" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D198" s="13"/>
       <c r="E198" s="13">
         <v>0</v>
       </c>
-      <c r="F198" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G198" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H198" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I198" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F198" s="13">
+        <v>0</v>
+      </c>
+      <c r="G198" s="13">
+        <v>0</v>
+      </c>
+      <c r="H198" s="13">
+        <v>0</v>
+      </c>
+      <c r="I198" s="13">
+        <v>0</v>
+      </c>
+      <c r="J198" s="13">
+        <v>0</v>
+      </c>
+      <c r="K198" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L198" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M198" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N198" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C199" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D199" s="11"/>
-      <c r="E199" s="11">
+      <c r="E199" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G199" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I199" s="11">
+        <v>-21544</v>
+      </c>
+      <c r="J199" s="11">
         <v>-1075</v>
       </c>
-      <c r="F199" s="11">
+      <c r="K199" s="11">
         <v>-92067</v>
       </c>
-      <c r="G199" s="11">
-        <v>0</v>
-      </c>
-      <c r="H199" s="11">
-        <v>-8806</v>
-      </c>
-      <c r="I199" s="11">
-        <v>-18701</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L199" s="11">
+        <v>0</v>
+      </c>
+      <c r="M199" s="11">
+        <v>-9586</v>
+      </c>
+      <c r="N199" s="11">
+        <v>-17921</v>
+      </c>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D200" s="13"/>
       <c r="E200" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F200" s="13">
-        <v>0</v>
-      </c>
-      <c r="G200" s="13">
-        <v>0</v>
-      </c>
-      <c r="H200" s="13">
-        <v>0</v>
-      </c>
-      <c r="I200" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F200" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G200" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H200" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I200" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J200" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K200" s="13">
+        <v>0</v>
+      </c>
+      <c r="L200" s="13">
+        <v>0</v>
+      </c>
+      <c r="M200" s="13">
+        <v>0</v>
+      </c>
+      <c r="N200" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15">
+        <v>0</v>
+      </c>
+      <c r="F201" s="15">
+        <v>0</v>
+      </c>
+      <c r="G201" s="15">
+        <v>11790</v>
+      </c>
+      <c r="H201" s="15">
+        <v>0</v>
+      </c>
+      <c r="I201" s="15">
+        <v>-21544</v>
+      </c>
+      <c r="J201" s="15">
         <v>-1075</v>
       </c>
-      <c r="F201" s="15">
+      <c r="K201" s="15">
         <v>-92067</v>
       </c>
-      <c r="G201" s="15">
-        <v>0</v>
-      </c>
-      <c r="H201" s="15">
-        <v>-8806</v>
-      </c>
-      <c r="I201" s="15">
-        <v>-18701</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L201" s="15">
+        <v>0</v>
+      </c>
+      <c r="M201" s="15">
+        <v>-9586</v>
+      </c>
+      <c r="N201" s="15">
+        <v>-17921</v>
+      </c>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
@@ -5000,58 +7650,93 @@
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
       <c r="I202" s="9"/>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J202" s="9"/>
+      <c r="K202" s="9"/>
+      <c r="L202" s="9"/>
+      <c r="M202" s="9"/>
+      <c r="N202" s="9"/>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C203" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D203" s="11"/>
       <c r="E203" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H203" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I203" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I203" s="11">
+        <v>0</v>
+      </c>
+      <c r="J203" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K203" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L203" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M203" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N203" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="12" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D204" s="13"/>
       <c r="E204" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F204" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G204" s="13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H204" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I204" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I204" s="13">
+        <v>0</v>
+      </c>
+      <c r="J204" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K204" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L204" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M204" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N204" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C205" s="15"/>
       <c r="D205" s="15"/>
@@ -5070,27 +7755,57 @@
       <c r="I205" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J205" s="15">
+        <v>0</v>
+      </c>
+      <c r="K205" s="15">
+        <v>0</v>
+      </c>
+      <c r="L205" s="15">
+        <v>0</v>
+      </c>
+      <c r="M205" s="15">
+        <v>0</v>
+      </c>
+      <c r="N205" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C206" s="17"/>
       <c r="D206" s="17"/>
       <c r="E206" s="17">
+        <v>-33506497</v>
+      </c>
+      <c r="F206" s="17">
+        <v>-6719020</v>
+      </c>
+      <c r="G206" s="17">
+        <v>-54522625</v>
+      </c>
+      <c r="H206" s="17">
+        <v>-13359946</v>
+      </c>
+      <c r="I206" s="17">
+        <v>1690292</v>
+      </c>
+      <c r="J206" s="17">
         <v>-14533923</v>
       </c>
-      <c r="F206" s="17">
+      <c r="K206" s="17">
         <v>-29891397</v>
       </c>
-      <c r="G206" s="17">
+      <c r="L206" s="17">
         <v>-2573902</v>
       </c>
-      <c r="H206" s="17">
-        <v>-43519730</v>
-      </c>
-      <c r="I206" s="17">
-        <v>-51553925</v>
+      <c r="M206" s="17">
+        <v>-56850300</v>
+      </c>
+      <c r="N206" s="17">
+        <v>-38223355</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/khodro/khodro/product/quarterly_seprated.xlsx
+++ b/database/industries/khodro/khodro/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khodro\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14AEC0A-5030-4B25-B644-0A791232457A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A11890-F411-4905-8759-4CDC2DD963E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -715,12 +715,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -735,7 +735,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -769,7 +769,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -784,7 +784,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -818,7 +818,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -833,7 +833,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -870,7 +870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -885,7 +885,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -941,7 +941,7 @@
         <v>14823</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
@@ -980,7 +980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>16070</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>8539</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>20651</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>100387</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>30</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>32</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>160470</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>34</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>16</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>20</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>23</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>24</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>26</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>27</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>28</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>29</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>30</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>35</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>36</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>37</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>39</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>40</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>21</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>35</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>41</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>42</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>44</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>45</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>161087</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2263,7 +2263,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2278,7 +2278,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2293,7 +2293,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>46</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2345,7 +2345,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>47</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>61834028</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>18</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>20</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>34832341</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>21</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>132803541</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>23</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>16082954</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>24</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>68589922</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>25</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>26</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>170563575</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>27</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>28</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>29</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>30</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>31</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>32</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>33</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>484706361</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>49</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>20</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>23</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>26</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>27</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>28</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>29</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>30</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>35</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>36</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>26498</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>37</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>657158</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="14" t="s">
         <v>39</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>683656</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>50</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>21</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>35</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>41</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="16" t="s">
         <v>42</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>44</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="16" t="s">
         <v>45</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>485390017</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3729,7 +3729,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3744,7 +3744,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3759,7 +3759,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>51</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3811,7 +3811,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>52</v>
       </c>
@@ -3828,7 +3828,7 @@
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>16</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>4171492141</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>18</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>20</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>2167538332</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>21</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>23</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>1883470430</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>24</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>3321385018</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>25</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>26</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>1699060386</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>27</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>28</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>29</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>30</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>31</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>32</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>55</v>
       </c>
@@ -4391,7 +4391,7 @@
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>16</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>20</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>23</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>24</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>26</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>27</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>28</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>29</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>30</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>35</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>36</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>2208166667</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>37</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>1086211570</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>57</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>21</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="12" t="s">
         <v>35</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4969,7 +4969,7 @@
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4984,7 +4984,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4999,7 +4999,7 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B128" s="7" t="s">
         <v>59</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -5051,7 +5051,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="8" t="s">
         <v>60</v>
       </c>
@@ -5068,7 +5068,7 @@
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="10" t="s">
         <v>16</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>-53893573</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="12" t="s">
         <v>18</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="10" t="s">
         <v>20</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>-39308218</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="12" t="s">
         <v>21</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>-128008892</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="10" t="s">
         <v>23</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>-17671231</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="12" t="s">
         <v>24</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>-69254750</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="10" t="s">
         <v>25</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="12" t="s">
         <v>26</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>-214775131</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="10" t="s">
         <v>27</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="12" t="s">
         <v>28</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="10" t="s">
         <v>29</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="12" t="s">
         <v>30</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>31</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="12" t="s">
         <v>32</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="14" t="s">
         <v>61</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>-522911795</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="8" t="s">
         <v>62</v>
       </c>
@@ -5668,7 +5668,7 @@
       <c r="M146" s="9"/>
       <c r="N146" s="9"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="10" t="s">
         <v>16</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="12" t="s">
         <v>20</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>23</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="12" t="s">
         <v>24</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>26</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="12" t="s">
         <v>27</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>28</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="12" t="s">
         <v>29</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>30</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="12" t="s">
         <v>35</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>36</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>-44419</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="12" t="s">
         <v>37</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>-657158</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="14" t="s">
         <v>63</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>-701577</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>64</v>
       </c>
@@ -6190,7 +6190,7 @@
       <c r="M160" s="9"/>
       <c r="N160" s="9"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>21</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="12" t="s">
         <v>35</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="14" t="s">
         <v>65</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="16" t="s">
         <v>42</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="14" t="s">
         <v>44</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="16" t="s">
         <v>45</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>-523613372</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -6435,7 +6435,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -6450,7 +6450,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -6465,7 +6465,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B170" s="7" t="s">
         <v>66</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -6517,7 +6517,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="8" t="s">
         <v>67</v>
       </c>
@@ -6534,7 +6534,7 @@
       <c r="M172" s="9"/>
       <c r="N172" s="9"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="10" t="s">
         <v>16</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>7940455</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="12" t="s">
         <v>18</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="10" t="s">
         <v>20</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>-4475877</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="12" t="s">
         <v>21</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>4794649</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>23</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>-1588277</v>
       </c>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="12" t="s">
         <v>24</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>-664828</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>25</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="12" t="s">
         <v>26</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>-44211556</v>
       </c>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>27</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="12" t="s">
         <v>28</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="10" t="s">
         <v>29</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="12" t="s">
         <v>30</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="10" t="s">
         <v>31</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="12" t="s">
         <v>32</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="14" t="s">
         <v>68</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>-38205434</v>
       </c>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
         <v>69</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="M188" s="9"/>
       <c r="N188" s="9"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>16</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="12" t="s">
         <v>20</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>23</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="12" t="s">
         <v>24</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>26</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="12" t="s">
         <v>27</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>28</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="12" t="s">
         <v>29</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>30</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="12" t="s">
         <v>35</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>36</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>-17921</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="12" t="s">
         <v>37</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="14" t="s">
         <v>70</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>-17921</v>
       </c>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="8" t="s">
         <v>71</v>
       </c>
@@ -7656,7 +7656,7 @@
       <c r="M202" s="9"/>
       <c r="N202" s="9"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="10" t="s">
         <v>21</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="12" t="s">
         <v>35</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="14" t="s">
         <v>72</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="16" t="s">
         <v>45</v>
       </c>
